--- a/biology/Zoologie/Chlorurus/Chlorurus.xlsx
+++ b/biology/Zoologie/Chlorurus/Chlorurus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Chlorurus est un genre de poissons marins tropicaux de la famille des Scaridae, de l'ordre des Perciformes, aussi appelés « poissons-perroquets ».
 </t>
@@ -511,9 +523,11 @@
           <t>Description et caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce sont des poissons-perroquets typiques, généralement bleus à l'âge adulte (qui est le stade mâle) équipés d'un puissant bec qui leur sert à broyer le corail ou d'autres nourritures dures (même s'ils se nourrissent aussi d'herbes marines et d'algues, comme celles du genre Halimeda). On peut les distinguer de leurs cousins du genre Scarus par un bec généralement plus puissant et un front plus bombé, surtout chez les vieux individus : en effet, ils font partie des poissons-perroquets « broyeurs » (excavators), pourvus d'un bec particulièrement puissant, dont l'action laisse des traces profondes dans le corail (les autres, les « gratteurs », se contentent de gratter le film algal superficiel)[1]. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce sont des poissons-perroquets typiques, généralement bleus à l'âge adulte (qui est le stade mâle) équipés d'un puissant bec qui leur sert à broyer le corail ou d'autres nourritures dures (même s'ils se nourrissent aussi d'herbes marines et d'algues, comme celles du genre Halimeda). On peut les distinguer de leurs cousins du genre Scarus par un bec généralement plus puissant et un front plus bombé, surtout chez les vieux individus : en effet, ils font partie des poissons-perroquets « broyeurs » (excavators), pourvus d'un bec particulièrement puissant, dont l'action laisse des traces profondes dans le corail (les autres, les « gratteurs », se contentent de gratter le film algal superficiel). 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Register of Marine Species                               (23 juillet 2014)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Register of Marine Species                               (23 juillet 2014) :
 Chlorurus atrilunula (Randall &amp; Bruce, 1983)
 Chlorurus bleekeri (de Beaufort, 1940) -- Perroquet joue blanche
 Chlorurus bowersi (Snyder, 1909)
